--- a/backup/erd메모.xlsx
+++ b/backup/erd메모.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\yd_Final01\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD303FE-B8D8-441D-BF03-70A43C1F06D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862127CC-C9CE-4F25-94D5-C8B6563ED7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17625" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{16E4D6EE-F1BF-4B12-8DAE-79157ECDD151}"/>
+    <workbookView xWindow="16125" yWindow="1785" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{16E4D6EE-F1BF-4B12-8DAE-79157ECDD151}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="146">
   <si>
     <t>국어1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,6 +308,265 @@
   </si>
   <si>
     <t>강의평가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄱㅅ3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄷㄹㄷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반려사유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅓㄷ라ㅣㅓㅈㅁㄹㄷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행정처 식뱔관계</t>
+  </si>
+  <si>
+    <t>등록금고지서: 전공코드 (반대로)</t>
+  </si>
+  <si>
+    <t>납부테이블 분리</t>
+  </si>
+  <si>
+    <t>개설강좌 신청 승인 목록 필요</t>
+  </si>
+  <si>
+    <t>교과갸설 학기 테이블이랑 병합</t>
+  </si>
+  <si>
+    <t>개설강좌 상태열</t>
+  </si>
+  <si>
+    <t>현재개설된거 필터링 할 수 있게</t>
+  </si>
+  <si>
+    <t xml:space="preserve">강의실할당 불필요. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">개설강좌 시작일 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  학년 연차</t>
+  </si>
+  <si>
+    <t>강의실을 병합</t>
+  </si>
+  <si>
+    <t>강의시간표</t>
+  </si>
+  <si>
+    <t>pk없이 밑으로</t>
+  </si>
+  <si>
+    <t>공지자료게시판</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pk설정</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 공지건/자료건 구분</t>
+  </si>
+  <si>
+    <t xml:space="preserve">교수가 과제 일괄 한번에 만들고 지정일되면 오픈되게. </t>
+  </si>
+  <si>
+    <t>기존 과제 재사용 기능?</t>
+  </si>
+  <si>
+    <t>과제가 강좌보다는 교과목 종속되게</t>
+  </si>
+  <si>
+    <t>(강좌에는 독립적으로)</t>
+  </si>
+  <si>
+    <t>과재제출방식</t>
+  </si>
+  <si>
+    <t>1. 수정식: 제츌일 첨부파일 (서버 올라간 거 처리 주의)</t>
+  </si>
+  <si>
+    <t>보기테이블 필요</t>
+  </si>
+  <si>
+    <t>5=매우그렇다</t>
+  </si>
+  <si>
+    <t>수강신청→수강내역으로</t>
+  </si>
+  <si>
+    <t>pk하면 안됨</t>
+  </si>
+  <si>
+    <t>출석테이블 별도 필요</t>
+  </si>
+  <si>
+    <t>과제테이블에 성적칼럼을 넣어버려</t>
+  </si>
+  <si>
+    <t>기말은 기말대로</t>
+  </si>
+  <si>
+    <t>중간은 중간대로</t>
+  </si>
+  <si>
+    <t>평가결과테이블은 그걸 취합해서</t>
+  </si>
+  <si>
+    <t>평가결과에</t>
+  </si>
+  <si>
+    <t>출석,과제,중간,기말 칼럼 필요</t>
+  </si>
+  <si>
+    <t>평가결과랑 최종 성적 테이블 그냥 합쳐</t>
+  </si>
+  <si>
+    <t>지도교수매칭(현재매칭상황)테이블</t>
+  </si>
+  <si>
+    <t>교수,학생,매칭잊라,비고</t>
+  </si>
+  <si>
+    <t>매칭 이력은 따로 테이블 분리</t>
+  </si>
+  <si>
+    <t>행정쪽에서도 교수 사유로 변경하게</t>
+  </si>
+  <si>
+    <t>상담이력에</t>
+  </si>
+  <si>
+    <t>상담완료여부? 명칭 정확히</t>
+  </si>
+  <si>
+    <t>상담스케쥴 테이블 필요</t>
+  </si>
+  <si>
+    <t>→상담이력으로 연결</t>
+  </si>
+  <si>
+    <t>(매칭코드fk는 뷸필요)</t>
+  </si>
+  <si>
+    <t>진로탐색검사목록</t>
+  </si>
+  <si>
+    <t>문항수 제거</t>
+  </si>
+  <si>
+    <t>진로탐색문항보기 테이블 필ㅇㅅ</t>
+  </si>
+  <si>
+    <t>검사코드fk를 pk말고 빼고</t>
+  </si>
+  <si>
+    <t>진탐색응답지</t>
+  </si>
+  <si>
+    <t>헤더(공통속성)테이블</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 언제 누가 했다</t>
+  </si>
+  <si>
+    <t>디테일테이블</t>
+  </si>
+  <si>
+    <t xml:space="preserve">→상세응답내용은 </t>
+  </si>
+  <si>
+    <t>문항 순서정보컬럼</t>
+  </si>
+  <si>
+    <t>분할회차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교과목 신설 기능은 안하기로!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄷㄹㄷㄹㄷㄹ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과제게시판-과제목록 딜레마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  과제코드 처리 어떻게??(FK가 아니라 신규로 부여받아야하는데)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--&gt;DB수정은 필요없고 서버 파일 교체 처리는 실전에서!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검사코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수가??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교재가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정코드 빼고(폼만여는 것)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -312,7 +574,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +587,24 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -437,7 +717,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -478,6 +758,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -794,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EFA31A-40D2-4783-B0A4-9BB3494D36CC}">
-  <dimension ref="E4:W89"/>
+  <dimension ref="E4:W97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M55" workbookViewId="0">
-      <selection activeCell="U84" sqref="U84"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -997,14 +1286,14 @@
         <v>4</v>
       </c>
       <c r="O25">
-        <f>(G25-M25)/N25</f>
+        <f t="shared" ref="O25:O30" si="0">(G25-M25)/N25</f>
         <v>125</v>
       </c>
       <c r="P25">
         <v>2</v>
       </c>
       <c r="Q25">
-        <f>G25-M25-(P25)*O25</f>
+        <f t="shared" ref="Q25:Q30" si="1">G25-M25-(P25)*O25</f>
         <v>250</v>
       </c>
     </row>
@@ -1022,14 +1311,14 @@
         <v>1</v>
       </c>
       <c r="O26">
-        <f>(G26-M26)/N26</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="P26">
         <v>1</v>
       </c>
       <c r="Q26">
-        <f>G26-M26-(P26)*O26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1047,14 +1336,14 @@
         <v>2</v>
       </c>
       <c r="O27">
-        <f>(G27-M27)/N27</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27">
-        <f>G27-M27-(P27)*O27</f>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
     </row>
@@ -1069,14 +1358,14 @@
         <v>3</v>
       </c>
       <c r="O28">
-        <f>(G28-M28)/N28</f>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
       <c r="P28">
         <v>1</v>
       </c>
       <c r="Q28">
-        <f>G28-M28-(P28)*O28</f>
+        <f t="shared" si="1"/>
         <v>320</v>
       </c>
     </row>
@@ -1092,14 +1381,14 @@
         <v>4</v>
       </c>
       <c r="O29">
-        <f>(G29-M29)/N29</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="P29">
         <v>3</v>
       </c>
       <c r="Q29">
-        <f>G29-M29-(P29)*O29</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
@@ -1114,14 +1403,14 @@
         <v>4</v>
       </c>
       <c r="O30">
-        <f>(G30-M30)/N30</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="P30">
         <v>4</v>
       </c>
       <c r="Q30">
-        <f>G30-M30-(P30)*O30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1527,63 +1816,656 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="15:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="15:23" x14ac:dyDescent="0.3">
       <c r="O81" s="7"/>
       <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
       <c r="S81" s="9"/>
     </row>
-    <row r="82" spans="15:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="15:23" x14ac:dyDescent="0.3">
       <c r="O82" s="7"/>
       <c r="P82" s="8"/>
       <c r="Q82" s="8"/>
       <c r="R82" s="8"/>
       <c r="S82" s="9"/>
     </row>
-    <row r="83" spans="15:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="15:23" x14ac:dyDescent="0.3">
       <c r="O83" s="7"/>
       <c r="P83" s="8"/>
       <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
       <c r="S83" s="9"/>
     </row>
-    <row r="84" spans="15:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="15:23" x14ac:dyDescent="0.3">
       <c r="O84" s="10"/>
       <c r="P84" s="11"/>
       <c r="Q84" s="11"/>
       <c r="R84" s="11"/>
       <c r="S84" s="12"/>
     </row>
-    <row r="85" spans="15:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="15:23" x14ac:dyDescent="0.3">
       <c r="O85" s="7"/>
       <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
       <c r="R85" s="9"/>
     </row>
-    <row r="86" spans="15:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="15:23" x14ac:dyDescent="0.3">
       <c r="O86" s="7"/>
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
       <c r="R86" s="9"/>
     </row>
-    <row r="87" spans="15:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="15:23" x14ac:dyDescent="0.3">
       <c r="O87" s="7"/>
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
       <c r="R87" s="9"/>
     </row>
-    <row r="88" spans="15:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="15:23" x14ac:dyDescent="0.3">
       <c r="O88" s="7"/>
       <c r="P88" s="8"/>
       <c r="Q88" s="8"/>
       <c r="R88" s="9"/>
     </row>
-    <row r="89" spans="15:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="15:23" x14ac:dyDescent="0.3">
       <c r="O89" s="10"/>
       <c r="P89" s="11"/>
       <c r="Q89" s="11"/>
       <c r="R89" s="12"/>
+    </row>
+    <row r="91" spans="15:23" x14ac:dyDescent="0.3">
+      <c r="S91" t="s">
+        <v>71</v>
+      </c>
+      <c r="T91" t="s">
+        <v>72</v>
+      </c>
+      <c r="U91" t="s">
+        <v>73</v>
+      </c>
+      <c r="V91" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="15:23" x14ac:dyDescent="0.3">
+      <c r="P92" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>39</v>
+      </c>
+      <c r="R92" t="s">
+        <v>41</v>
+      </c>
+      <c r="U92" t="s">
+        <v>74</v>
+      </c>
+      <c r="V92" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="15:23" x14ac:dyDescent="0.3">
+      <c r="P93" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R93" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="V93" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W93" s="2"/>
+    </row>
+    <row r="94" spans="15:23" x14ac:dyDescent="0.3">
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V94" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W94" s="2"/>
+    </row>
+    <row r="95" spans="15:23" x14ac:dyDescent="0.3">
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V95" s="2"/>
+      <c r="W95" s="2"/>
+    </row>
+    <row r="96" spans="15:23" x14ac:dyDescent="0.3">
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+    </row>
+    <row r="97" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q97" t="s">
+        <v>39</v>
+      </c>
+      <c r="R97" t="s">
+        <v>38</v>
+      </c>
+      <c r="U97" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19FCC3A-ED27-489D-9A11-F327CB386855}">
+  <dimension ref="A2:A102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="14"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="15"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="15"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C196B50B-E53A-4F97-8AFC-B3D986385195}">
+  <dimension ref="B14:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>123</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>234</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>234</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756ED2D7-2160-4C1D-A873-6421DE1304C8}">
+  <dimension ref="A19:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/backup/erd메모.xlsx
+++ b/backup/erd메모.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\yd_Final01\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862127CC-C9CE-4F25-94D5-C8B6563ED7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF79C77-51C3-48C1-973C-2D15607AD48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16125" yWindow="1785" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{16E4D6EE-F1BF-4B12-8DAE-79157ECDD151}"/>
+    <workbookView xWindow="7200" yWindow="3615" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{16E4D6EE-F1BF-4B12-8DAE-79157ECDD151}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="206">
   <si>
     <t>국어1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,9 +447,6 @@
     <t>출석테이블 별도 필요</t>
   </si>
   <si>
-    <t>과제테이블에 성적칼럼을 넣어버려</t>
-  </si>
-  <si>
     <t>기말은 기말대로</t>
   </si>
   <si>
@@ -534,10 +534,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄷㄹㄷㄹㄷㄹ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>과제게시판-과제목록 딜레마</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -567,6 +563,254 @@
   </si>
   <si>
     <t>일정코드 빼고(폼만여는 것)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결석일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강좌리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강좌A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅈ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출결상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간표코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교시코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표시교시명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요일코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅁ1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅁ2ㅁ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅁ3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1교시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2교시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅡ1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅡ2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅡ3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-20.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-01: 월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-02: 환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅡ1월9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅡ2:월10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅡ3:월11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공휴일 개념 X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rrr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qqq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강좌신청시 "강의첫날짜"를 지정해서 신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강읜라짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inser1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inser2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(학기표의 시작일) 이후 처음 등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄳㄴ 함정에 빠지지 말자!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과제는 기존 과제DB 개념 X (재사용X 무조건 신규작성. 단순 게시판임)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과제테이블에 점수칼럼을 넣어버려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석점수는 자동으로 집계되도록!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"상태"는 이력으로 쌓는 성격이 아니라 토글처럼 성격 변경 느낌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">매칭구분(디폴트:"매칭완료"→변경시: "매칭해지") </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정유형: 수강신청, 교내이벤트, 상담신청 ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수간신청=상담신청=선착순(신청이 곧 확정임)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담진행현황: 불참(학생개인사유), 불참(교수개인사유), 일지미작성, 최종완료(졸업,취업~)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +818,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,8 +855,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,6 +875,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,7 +979,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,6 +1029,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1085,7 +1368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EFA31A-40D2-4783-B0A4-9BB3494D36CC}">
   <dimension ref="E4:W97"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -1982,319 +2265,652 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19FCC3A-ED27-489D-9A11-F327CB386855}">
-  <dimension ref="A2:A102"/>
+  <dimension ref="A1:A113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>136</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>138</v>
+      <c r="A3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>139</v>
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>81</v>
+      <c r="A10" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>84</v>
+      <c r="A11" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="22"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="14" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="15" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="14" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="14" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="14"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="14"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="14" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="15" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="15"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="15"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="15" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="15" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="15"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="15"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="15" t="s">
-        <v>133</v>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA1738B-55FD-43DD-9069-4A3E103249B3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B8F706-515A-44E0-9CAA-B77DB7A4DDD8}">
+  <dimension ref="A1:M50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="17">
+        <v>44783</v>
+      </c>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="17">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="17">
+        <v>44785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" t="s">
+        <v>150</v>
+      </c>
+      <c r="M8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>45610</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>45610</v>
+      </c>
+      <c r="E25">
+        <v>45617</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G40" s="17"/>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>194</v>
+      </c>
+      <c r="E42" t="s">
+        <v>192</v>
+      </c>
+      <c r="F42" t="s">
+        <v>187</v>
+      </c>
+      <c r="G42" s="17">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" t="s">
+        <v>193</v>
+      </c>
+      <c r="F43" t="s">
+        <v>187</v>
+      </c>
+      <c r="G43" s="17">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>187</v>
+      </c>
+      <c r="G44" s="17">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F48" t="s">
+        <v>189</v>
+      </c>
+      <c r="G48" s="17">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F49" t="s">
+        <v>189</v>
+      </c>
+      <c r="G49" s="17">
+        <v>44622</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F50" t="s">
+        <v>189</v>
+      </c>
+      <c r="G50" s="17">
+        <v>44623</v>
       </c>
     </row>
   </sheetData>
@@ -2303,19 +2919,259 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A364834E-F036-491F-BCB1-D7474D60C1E2}">
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G2" s="17">
+        <v>44622</v>
+      </c>
+      <c r="H2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F3" s="18"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>202201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>202202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="17">
+        <v>44623</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="17"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C196B50B-E53A-4F97-8AFC-B3D986385195}">
   <dimension ref="B14:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
         <v>53</v>
@@ -2326,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
@@ -2334,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
@@ -2352,7 +3208,7 @@
         <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
@@ -2411,7 +3267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756ED2D7-2160-4C1D-A873-6421DE1304C8}">
   <dimension ref="A19:C23"/>
   <sheetViews>
@@ -2423,10 +3279,10 @@
   <sheetData>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" t="s">
         <v>134</v>
-      </c>
-      <c r="C19" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">

--- a/backup/erd메모.xlsx
+++ b/backup/erd메모.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\yd_Final01\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF79C77-51C3-48C1-973C-2D15607AD48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D58F99C-1787-4E92-A1F6-86E7F6ED76F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3615" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{16E4D6EE-F1BF-4B12-8DAE-79157ECDD151}"/>
+    <workbookView xWindow="6030" yWindow="2580" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{16E4D6EE-F1BF-4B12-8DAE-79157ECDD151}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="247">
   <si>
     <t>국어1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -811,6 +811,132 @@
   </si>
   <si>
     <t>상담진행현황: 불참(학생개인사유), 불참(교수개인사유), 일지미작성, 최종완료(졸업,취업~)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0회차→선납</t>
+  </si>
+  <si>
+    <t>선납+할부 합쳐</t>
+  </si>
+  <si>
+    <t>분할횟수,남음횟수,잔액,완납여부→헤더로</t>
+  </si>
+  <si>
+    <t>납부상세는 근거자료 느낌</t>
+  </si>
+  <si>
+    <t>분할횟수와 1회차납부금을 분할</t>
+  </si>
+  <si>
+    <t>개설신청목록→ "개설강좌"에는 실제필요한 정보들</t>
+  </si>
+  <si>
+    <t>속성 끌고오지 말고 복사를 하쟈</t>
+  </si>
+  <si>
+    <t>학기표 시작일은 학사일정에서 참조하쟈</t>
+  </si>
+  <si>
+    <t>제출기한 제외</t>
+  </si>
+  <si>
+    <t>과제제출→사용자교번학번 제외</t>
+  </si>
+  <si>
+    <t>교직원퍙가응답지→인서트만하면 위험하진 않음</t>
+  </si>
+  <si>
+    <t>졸업기준테이블에 전공코드가 비식별자?</t>
+  </si>
+  <si>
+    <t>졸업요건퉁족햔황에 누적시켜라</t>
+  </si>
+  <si>
+    <t>점수를 졸업요건에 반영시킬거면 졸업기준t에 츄가하고 졸업기준충족현황이링 직접 연결은 없어야 함</t>
+  </si>
+  <si>
+    <t>출결 점수화: 단순산식으로 때려넣지말고 기준표를 마련하라!</t>
+  </si>
+  <si>
+    <t>지도교수마칭변경신청</t>
+  </si>
+  <si>
+    <t>pk를주고 지도교수매칭이력에 넣어라</t>
+  </si>
+  <si>
+    <t>상담신청→무조건 아니라 교수가 승인/취소 기회를 줘라!</t>
+  </si>
+  <si>
+    <t>진로탐색응답지ㅛㅏㅇ시</t>
+  </si>
+  <si>
+    <t>문항코두</t>
+  </si>
+  <si>
+    <t>응답내용만</t>
+  </si>
+  <si>
+    <t>나머지 다 버려</t>
+  </si>
+  <si>
+    <t>상당신청이력</t>
+  </si>
+  <si>
+    <t>워크넷 진로검색 파일</t>
+  </si>
+  <si>
+    <t>채팅메모 임시테이블</t>
+  </si>
+  <si>
+    <t>→일정기간되면 지우기</t>
+  </si>
+  <si>
+    <t>tb1</t>
+  </si>
+  <si>
+    <t>과제코드</t>
+  </si>
+  <si>
+    <t>제목</t>
+  </si>
+  <si>
+    <t>내용</t>
+  </si>
+  <si>
+    <t>첨부파일</t>
+  </si>
+  <si>
+    <t>작성</t>
+  </si>
+  <si>
+    <t>→게시글만 수정</t>
+  </si>
+  <si>
+    <t>tb2</t>
+  </si>
+  <si>
+    <t>뷰단:</t>
+  </si>
+  <si>
+    <t>초기화버튼→새글로 처리</t>
+  </si>
+  <si>
+    <t>뷸러온 과제 재사용은 수정 불가로!</t>
+  </si>
+  <si>
+    <t>아니면 조금이라도 달르면 신규로 등록</t>
+  </si>
+  <si>
+    <t>학점테이블: update로 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업기준충족여부는 학점테이블에서 추론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→변동사유</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2267,8 +2393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19FCC3A-ED27-489D-9A11-F327CB386855}">
   <dimension ref="A1:A113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2634,16 +2760,241 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA1738B-55FD-43DD-9069-4A3E103249B3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="15"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="15"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="15"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="15"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2651,8 +3002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B8F706-515A-44E0-9CAA-B77DB7A4DDD8}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2923,7 +3274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A364834E-F036-491F-BCB1-D7474D60C1E2}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
